--- a/lab2/2laba.xlsx
+++ b/lab2/2laba.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bomjz\Desktop\lab2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bomjz\Desktop\7-semestr.git\lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60915B28-8BA3-4DCF-AF4D-5D54B7F305B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8E792D-B82D-4891-B94F-9480133CCC4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -87,9 +93,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -135,7 +142,7 @@
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -257,7 +264,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000025-6E01-464E-8E6C-797DDA7439E5}"/>
@@ -444,7 +451,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6FD0-4DA5-94B2-67DBF5888C8E}"/>
@@ -751,7 +758,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6FD0-4DA5-94B2-67DBF5888C8E}"/>
@@ -1298,7 +1305,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-6FD0-4DA5-94B2-67DBF5888C8E}"/>
@@ -1485,7 +1492,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-6FD0-4DA5-94B2-67DBF5888C8E}"/>
@@ -1792,7 +1799,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-6FD0-4DA5-94B2-67DBF5888C8E}"/>
@@ -2025,7 +2032,7 @@
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2147,7 +2154,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1D8C-47A6-965F-739FD100A7AF}"/>
@@ -2334,7 +2341,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1D8C-47A6-965F-739FD100A7AF}"/>
@@ -2639,7 +2646,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-1D8C-47A6-965F-739FD100A7AF}"/>
@@ -3186,7 +3193,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-1D8C-47A6-965F-739FD100A7AF}"/>
@@ -3373,7 +3380,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-1D8C-47A6-965F-739FD100A7AF}"/>
@@ -3678,7 +3685,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-1D8C-47A6-965F-739FD100A7AF}"/>
@@ -3883,6 +3890,4130 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>11х11</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0000001000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.15000000999999999</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0.25000006000000002</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.35000007999999999</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.45000011000000001</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.55000006999999995</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.65000015</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.75000023999999998</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.85000019999999998</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.95000010999999995</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0314389000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3986711000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6588696000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.7605213999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.5267466999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.3523853000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.5974296000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.1982133999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.9396157999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9592294E-2</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BFC1-4C79-8B84-A471AAF48427}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="238111519"/>
+        <c:axId val="238148927"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>22х22</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="x"/>
+                  <c:size val="3"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$E$17:$E$38</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00E+00</c:formatCode>
+                      <c:ptCount val="22"/>
+                      <c:pt idx="0" formatCode="General">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>7.0758061000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.1217896999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.6286047000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2.3632602999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3.2098359999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3.9088808000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>4.2247273000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>4.3419252999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>4.6128071999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>5.0569057000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>5.5300719999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>5.9612971000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>6.3437931000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>6.6938101999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>6.9873176999999995E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>7.1182624E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>6.8822168000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>6.0147591E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>4.6478937999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>1.1021484E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="21" formatCode="General">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$C$17:$C$38</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00E+00</c:formatCode>
+                      <c:ptCount val="22"/>
+                      <c:pt idx="0" formatCode="General">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.5000003999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7.5000002999999996E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3" formatCode="General">
+                        <c:v>0.125</c:v>
+                      </c:pt>
+                      <c:pt idx="4" formatCode="General">
+                        <c:v>0.17500001000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="5" formatCode="General">
+                        <c:v>0.22500005000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="6" formatCode="General">
+                        <c:v>0.27500010000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="7" formatCode="General">
+                        <c:v>0.32500011000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="8" formatCode="General">
+                        <c:v>0.37500011999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="9" formatCode="General">
+                        <c:v>0.42500009999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="10" formatCode="General">
+                        <c:v>0.47500010999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="11" formatCode="General">
+                        <c:v>0.52500015</c:v>
+                      </c:pt>
+                      <c:pt idx="12" formatCode="General">
+                        <c:v>0.57500028999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="13" formatCode="General">
+                        <c:v>0.62500029999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="14" formatCode="General">
+                        <c:v>0.67500031000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="15" formatCode="General">
+                        <c:v>0.72500043999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="16" formatCode="General">
+                        <c:v>0.77500044999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="17" formatCode="General">
+                        <c:v>0.82500052000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="18" formatCode="General">
+                        <c:v>0.87500065999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="19" formatCode="General">
+                        <c:v>0.92500079000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="20" formatCode="General">
+                        <c:v>0.97500038</c:v>
+                      </c:pt>
+                      <c:pt idx="21" formatCode="General">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-BFC1-4C79-8B84-A471AAF48427}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:v>41х41</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="15875" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="3"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$E$43:$E$84</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00E+00</c:formatCode>
+                      <c:ptCount val="42"/>
+                      <c:pt idx="0" formatCode="General">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.5924467E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3.7011430000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.9493293000000002E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3.8650769000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4.9182866000000002E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7.1750850999999999E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.0096979000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.2974427E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.5210122E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.6617845999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1.7478172E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1.8266199E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1.9335233E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2.0805859999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2.2629996999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2.4696874000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>2.6905815999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2.9192761000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>3.1525806000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>3.3889959999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>3.6274045999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>3.8663602999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>4.1037313999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>4.3365803000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>4.5613109999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>4.7738838999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>4.9699648999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>5.1451932999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>5.2952672999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>5.4154247000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>5.4990608000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>5.5355045999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>5.5076614000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>5.3914524999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>5.1573257999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>4.7779943999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>4.2184178000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>3.4112799999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>1.9764080999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>1.7811979999999999E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="41" formatCode="General">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$C$43:$C$84</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00E+00</c:formatCode>
+                      <c:ptCount val="42"/>
+                      <c:pt idx="0" formatCode="General">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.2499990000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3.7499963999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6.2499939999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8.7499916999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5" formatCode="General">
+                        <c:v>0.1124999</c:v>
+                      </c:pt>
+                      <c:pt idx="6" formatCode="General">
+                        <c:v>0.13749990000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="7" formatCode="General">
+                        <c:v>0.16249985</c:v>
+                      </c:pt>
+                      <c:pt idx="8" formatCode="General">
+                        <c:v>0.18749979</c:v>
+                      </c:pt>
+                      <c:pt idx="9" formatCode="General">
+                        <c:v>0.21249979999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="10" formatCode="General">
+                        <c:v>0.23749980000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="11" formatCode="General">
+                        <c:v>0.26249983999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="12" formatCode="General">
+                        <c:v>0.28749989999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="13" formatCode="General">
+                        <c:v>0.31249988000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="14" formatCode="General">
+                        <c:v>0.33749994999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="15" formatCode="General">
+                        <c:v>0.36250000999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="16" formatCode="General">
+                        <c:v>0.38749999000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="17" formatCode="General">
+                        <c:v>0.41250005000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="18" formatCode="General">
+                        <c:v>0.43750011999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="19" formatCode="General">
+                        <c:v>0.46250010000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="20" formatCode="General">
+                        <c:v>0.48750012999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="21" formatCode="General">
+                        <c:v>0.51250017000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="22" formatCode="General">
+                        <c:v>0.53750025999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="23" formatCode="General">
+                        <c:v>0.56250029999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="24" formatCode="General">
+                        <c:v>0.58750033000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="25" formatCode="General">
+                        <c:v>0.61250037000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="26" formatCode="General">
+                        <c:v>0.63750041000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="27" formatCode="General">
+                        <c:v>0.66250038</c:v>
+                      </c:pt>
+                      <c:pt idx="28" formatCode="General">
+                        <c:v>0.68750047999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="29" formatCode="General">
+                        <c:v>0.71250051000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="30" formatCode="General">
+                        <c:v>0.73750048999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="31" formatCode="General">
+                        <c:v>0.76250052000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="32" formatCode="General">
+                        <c:v>0.78750061999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="33" formatCode="General">
+                        <c:v>0.81250060000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="34" formatCode="General">
+                        <c:v>0.83750062999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="35" formatCode="General">
+                        <c:v>0.86250066999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="36" formatCode="General">
+                        <c:v>0.88750076</c:v>
+                      </c:pt>
+                      <c:pt idx="37" formatCode="General">
+                        <c:v>0.9125008</c:v>
+                      </c:pt>
+                      <c:pt idx="38" formatCode="General">
+                        <c:v>0.93750082999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="39" formatCode="General">
+                        <c:v>0.96250086999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="40" formatCode="General">
+                        <c:v>0.98750042999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="41" formatCode="General">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-BFC1-4C79-8B84-A471AAF48427}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:v>81х81</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="12700" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="x"/>
+                  <c:size val="2"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$E$88:$E$169</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00E+00</c:formatCode>
+                      <c:ptCount val="82"/>
+                      <c:pt idx="0" formatCode="General">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.2902995E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.1733461000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2.0691666000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2.3624515E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2.1198543000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.6740855E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.3579529E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.3782302999999999E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.8041552000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2.6066569E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>3.6985043000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>4.9620653000000004E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>6.2708114000000004E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>7.509707E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>8.5930172000000006E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>9.4752851999999992E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1.0153008E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1.0657494E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1.1042077000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>1.1368079999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>1.1692950000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>1.2062533E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>1.2507819E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>1.3045121E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>1.3678498000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>1.4403292E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>1.520957E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>1.6085135E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>1.7017638000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>1.7995987000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>1.9010928E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>2.0055244E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>2.1123580999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>2.2212129000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>2.3318118999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>2.4439555000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>2.5574830999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>2.6722558E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>2.7881210999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>2.9049193000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>3.0224602999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>3.1405289000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>3.2588657E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>3.3771843000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>3.4951527000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>3.6124038999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>3.7285272000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>3.8430802999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>3.9555799000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>4.0655023999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>4.1722938000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>4.2753755999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>4.3741389999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>4.4679627E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>4.5562143999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>4.6382535000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>4.7134417999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>4.7811244000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>4.8406191000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>4.8911888000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>4.9319967999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>4.9620464000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>4.9801137000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>4.9846745999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>4.9738362000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>4.9452933999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>4.8963144E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>4.8237941999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>4.7243441999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>4.5944389000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>4.4304973999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>4.2286183999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>3.9832185999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>3.6831944999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>3.3050309999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>2.8075578E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>2.1451966999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>1.3297033999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>4.8124222000000003E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>-2.6262262999999998E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="81" formatCode="General">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$C$88:$C$169</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00E+00</c:formatCode>
+                      <c:ptCount val="82"/>
+                      <c:pt idx="0" formatCode="General">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6.2499950000000004E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.8749986E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.1249969999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4.3749955E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5.6249946000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6.8749933999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8.1249923000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9.3749911000000005E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9" formatCode="General">
+                        <c:v>0.10624989999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="10" formatCode="General">
+                        <c:v>0.11874990000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="11" formatCode="General">
+                        <c:v>0.1312499</c:v>
+                      </c:pt>
+                      <c:pt idx="12" formatCode="General">
+                        <c:v>0.14374994999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="13" formatCode="General">
+                        <c:v>0.15625</c:v>
+                      </c:pt>
+                      <c:pt idx="14" formatCode="General">
+                        <c:v>0.16875005000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="15" formatCode="General">
+                        <c:v>0.1812501</c:v>
+                      </c:pt>
+                      <c:pt idx="16" formatCode="General">
+                        <c:v>0.19375013999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="17" formatCode="General">
+                        <c:v>0.20625019</c:v>
+                      </c:pt>
+                      <c:pt idx="18" formatCode="General">
+                        <c:v>0.21875025000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="19" formatCode="General">
+                        <c:v>0.23125029999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="20" formatCode="General">
+                        <c:v>0.24375032999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="21" formatCode="General">
+                        <c:v>0.25625038</c:v>
+                      </c:pt>
+                      <c:pt idx="22" formatCode="General">
+                        <c:v>0.26875046000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="23" formatCode="General">
+                        <c:v>0.28125051000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="24" formatCode="General">
+                        <c:v>0.29375048999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="25" formatCode="General">
+                        <c:v>0.30625054000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="26" formatCode="General">
+                        <c:v>0.31875061999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="27" formatCode="General">
+                        <c:v>0.33125067000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="28" formatCode="General">
+                        <c:v>0.34375072000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="29" formatCode="General">
+                        <c:v>0.35625076</c:v>
+                      </c:pt>
+                      <c:pt idx="30" formatCode="General">
+                        <c:v>0.36875080999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="31" formatCode="General">
+                        <c:v>0.38125086000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="32" formatCode="General">
+                        <c:v>0.39375091000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="33" formatCode="General">
+                        <c:v>0.40625095</c:v>
+                      </c:pt>
+                      <c:pt idx="34" formatCode="General">
+                        <c:v>0.41875099999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="35" formatCode="General">
+                        <c:v>0.43125105000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="36" formatCode="General">
+                        <c:v>0.44375110000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="37" formatCode="General">
+                        <c:v>0.45625114</c:v>
+                      </c:pt>
+                      <c:pt idx="38" formatCode="General">
+                        <c:v>0.46875118999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="39" formatCode="General">
+                        <c:v>0.48125124000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="40" formatCode="General">
+                        <c:v>0.49375129000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="41" formatCode="General">
+                        <c:v>0.50625134000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="42" formatCode="General">
+                        <c:v>0.51875137999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="43" formatCode="General">
+                        <c:v>0.53125142999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="44" formatCode="General">
+                        <c:v>0.54375147999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="45" formatCode="General">
+                        <c:v>0.55625153000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="46" formatCode="General">
+                        <c:v>0.56875156999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="47" formatCode="General">
+                        <c:v>0.58125161999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="48" formatCode="General">
+                        <c:v>0.59375166999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="49" formatCode="General">
+                        <c:v>0.60625172000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="50" formatCode="General">
+                        <c:v>0.61875175999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="51" formatCode="General">
+                        <c:v>0.63125180999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="52" formatCode="General">
+                        <c:v>0.64375185999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="53" formatCode="General">
+                        <c:v>0.65625191000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="54" formatCode="General">
+                        <c:v>0.66875196000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="55" formatCode="General">
+                        <c:v>0.68125199999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="56" formatCode="General">
+                        <c:v>0.69375204999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="57" formatCode="General">
+                        <c:v>0.70625210000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="58" formatCode="General">
+                        <c:v>0.71875215000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="59" formatCode="General">
+                        <c:v>0.73125218999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="60" formatCode="General">
+                        <c:v>0.74375223999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="61" formatCode="General">
+                        <c:v>0.75625229000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="62" formatCode="General">
+                        <c:v>0.76875234000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="63" formatCode="General">
+                        <c:v>0.78125237999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="64" formatCode="General">
+                        <c:v>0.79375242999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="65" formatCode="General">
+                        <c:v>0.80625248000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="66" formatCode="General">
+                        <c:v>0.81875253000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="67" formatCode="General">
+                        <c:v>0.83125256999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="68" formatCode="General">
+                        <c:v>0.84375261999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="69" formatCode="General">
+                        <c:v>0.85625267000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="70" formatCode="General">
+                        <c:v>0.86875272000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="71" formatCode="General">
+                        <c:v>0.88125277000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="72" formatCode="General">
+                        <c:v>0.89375280999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="73" formatCode="General">
+                        <c:v>0.90625286000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="74" formatCode="General">
+                        <c:v>0.91875291000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="75" formatCode="General">
+                        <c:v>0.93125296000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="76" formatCode="General">
+                        <c:v>0.94375299999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="77" formatCode="General">
+                        <c:v>0.95625305000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="78" formatCode="General">
+                        <c:v>0.96875310000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="79" formatCode="General">
+                        <c:v>0.98125315000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="80" formatCode="General">
+                        <c:v>0.99375159000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="81" formatCode="General">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-BFC1-4C79-8B84-A471AAF48427}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:v>21х21_1.1</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="diamond"/>
+                  <c:size val="3"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$E$173:$E$194</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00E+00</c:formatCode>
+                      <c:ptCount val="22"/>
+                      <c:pt idx="0" formatCode="General">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3.9566936999999996E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.0132402E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.5209514E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2.1387789000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2.9109098E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3.7048176000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>4.3548346000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>4.6694449999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>4.7836792000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>5.1722322000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>5.8460317999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>6.4248688999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>6.8998828999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>7.2885617999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>7.4538707999999995E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>7.2408794999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>6.5271131999999996E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>5.3708146999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>3.5864234000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>6.4962151999999997E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="21" formatCode="General">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$C$173:$C$194</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00E+00</c:formatCode>
+                      <c:ptCount val="22"/>
+                      <c:pt idx="0" formatCode="General">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.8094361E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5.5549711000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>9.5626950000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4" formatCode="General">
+                        <c:v>0.13850953999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="5" formatCode="General">
+                        <c:v>0.18439394000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="6" formatCode="General">
+                        <c:v>0.23349030000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="7" formatCode="General">
+                        <c:v>0.28602335000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="8" formatCode="General">
+                        <c:v>0.34223375</c:v>
+                      </c:pt>
+                      <c:pt idx="9" formatCode="General">
+                        <c:v>0.40237886</c:v>
+                      </c:pt>
+                      <c:pt idx="10" formatCode="General">
+                        <c:v>0.46673417</c:v>
+                      </c:pt>
+                      <c:pt idx="11" formatCode="General">
+                        <c:v>0.53326583000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="12" formatCode="General">
+                        <c:v>0.59762119999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="13" formatCode="General">
+                        <c:v>0.65776621999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="14" formatCode="General">
+                        <c:v>0.71397661999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="15" formatCode="General">
+                        <c:v>0.76650971000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="16" formatCode="General">
+                        <c:v>0.81560606000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="17" formatCode="General">
+                        <c:v>0.86149049</c:v>
+                      </c:pt>
+                      <c:pt idx="18" formatCode="General">
+                        <c:v>0.90437305000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="19" formatCode="General">
+                        <c:v>0.94445025999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="20" formatCode="General">
+                        <c:v>0.98190564000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="21" formatCode="General">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-BFC1-4C79-8B84-A471AAF48427}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:v>41х41_1,07</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="12700" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="diamond"/>
+                  <c:size val="3"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$E$198:$E$239</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00E+00</c:formatCode>
+                      <c:ptCount val="42"/>
+                      <c:pt idx="0" formatCode="General">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3.0102280999999998E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.187905E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.8158784000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.5197780000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3.2369891000000003E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>-9.8047173000000002E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>-1.7655892E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>-1.8963706000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>-1.0851661000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>3.1598206E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1.7963015999999999E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>3.2873589000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>4.4685248E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>5.2619538999999996E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>6.1770979999999998E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>7.7708676000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1.0225850999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1.3356473000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1.6908366000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>2.1092236E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>2.5334895E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>2.9042304000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>3.2457369999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>3.5503413999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>3.8114204999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>4.0261946999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>4.1925773E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>4.3067849999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>4.3628412999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>4.3539769999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>4.2750920999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>4.1246816999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>3.9047096000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>3.6153626000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>3.2394521000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>2.7275475E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>2.0289747E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>1.1820928E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>3.8357687000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>-2.3762663000000001E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="41" formatCode="General">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$C$198:$C$239</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00E+00</c:formatCode>
+                      <c:ptCount val="42"/>
+                      <c:pt idx="0" formatCode="General">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6.41918E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.9706905E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.3924787999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4.9137920000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6.5415949000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>8.2833438999999995E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7" formatCode="General">
+                        <c:v>0.10147019</c:v>
+                      </c:pt>
+                      <c:pt idx="8" formatCode="General">
+                        <c:v>0.12141150000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="9" formatCode="General">
+                        <c:v>0.14274865</c:v>
+                      </c:pt>
+                      <c:pt idx="10" formatCode="General">
+                        <c:v>0.16557944999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="11" formatCode="General">
+                        <c:v>0.19000839999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="12" formatCode="General">
+                        <c:v>0.21614734999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="13" formatCode="General">
+                        <c:v>0.24411604000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="14" formatCode="General">
+                        <c:v>0.27404255</c:v>
+                      </c:pt>
+                      <c:pt idx="15" formatCode="General">
+                        <c:v>0.30606389000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="16" formatCode="General">
+                        <c:v>0.34032676000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="17" formatCode="General">
+                        <c:v>0.37698799</c:v>
+                      </c:pt>
+                      <c:pt idx="18" formatCode="General">
+                        <c:v>0.41621553999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="19" formatCode="General">
+                        <c:v>0.45818903999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="20" formatCode="General">
+                        <c:v>0.50310063000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="21" formatCode="General">
+                        <c:v>0.54720944000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="22" formatCode="General">
+                        <c:v>0.58762990999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="23" formatCode="General">
+                        <c:v>0.62540614999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="24" formatCode="General">
+                        <c:v>0.66071086999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="25" formatCode="General">
+                        <c:v>0.69370598000000006</c:v>
+                      </c:pt>
+                      <c:pt idx="26" formatCode="General">
+                        <c:v>0.72454249999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="27" formatCode="General">
+                        <c:v>0.75336170000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="28" formatCode="General">
+                        <c:v>0.78029561000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="29" formatCode="General">
+                        <c:v>0.80546748999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="30" formatCode="General">
+                        <c:v>0.82899248999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="31" formatCode="General">
+                        <c:v>0.85097849000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="32" formatCode="General">
+                        <c:v>0.87152624000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="33" formatCode="General">
+                        <c:v>0.89072973</c:v>
+                      </c:pt>
+                      <c:pt idx="34" formatCode="General">
+                        <c:v>0.90867692</c:v>
+                      </c:pt>
+                      <c:pt idx="35" formatCode="General">
+                        <c:v>0.92544996999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="36" formatCode="General">
+                        <c:v>0.94112574999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="37" formatCode="General">
+                        <c:v>0.95577592</c:v>
+                      </c:pt>
+                      <c:pt idx="38" formatCode="General">
+                        <c:v>0.96946770000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="39" formatCode="General">
+                        <c:v>0.98226380000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="40" formatCode="General">
+                        <c:v>0.99422275999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="41" formatCode="General">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-BFC1-4C79-8B84-A471AAF48427}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="238111519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Vy</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="238148927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="238148927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>y</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="238111519"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>11x11</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$V$3:$V$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0000001000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.15000000999999999</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0.25000006000000002</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.35000007999999999</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.45000011000000001</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.55000006999999995</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.65000015</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.75000023999999998</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.85000019999999998</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.95000010999999995</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$X$3:$X$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6023224E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.3384526E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.6472567999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7.6351367000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7.1664482000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6.7092641999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-6.5542458999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6.3040860000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-8.0058827999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-7.0708871000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C1A9-4868-AF1E-95434ADC6884}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>21x21</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$V$18:$V$39</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5000003999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5000002999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.17500001000000001</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.22500005000000001</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.27500010000000003</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.32500011000000001</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.37500011999999999</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.42500009999999999</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.47500010999999998</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>0.52500015</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>0.57500028999999997</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>0.62500029999999995</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>0.67500031000000005</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>0.72500043999999997</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>0.77500044999999995</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>0.82500052000000001</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>0.87500065999999999</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>0.92500079000000002</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>0.97500038</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$X$18:$X$39</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8081427999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.4826848E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.5118017000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.2723948E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-6.4770438E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-7.0932231999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-7.3492520000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-7.5512044E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-7.8749314000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-8.3090670000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-8.8047422E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-9.3496546E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-9.9388286000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>-0.10535177</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>-0.11151392</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>-0.12073556000000001</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>-0.13872871000000001</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>-0.15582040999999999</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>-0.13041717999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-5.5028446000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C1A9-4868-AF1E-95434ADC6884}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>41x41</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$V$44:$V$85</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2499990000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7499963999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2499939999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.7499916999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.1124999</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.13749990000000001</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.16249985</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.18749979</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.21249979999999999</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.23749980000000001</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>0.26249983999999998</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>0.28749989999999997</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>0.31249988000000001</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>0.33749994999999999</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>0.36250000999999998</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>0.38749999000000002</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>0.41250005000000001</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>0.43750011999999999</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>0.46250010000000003</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>0.48750012999999998</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.51250017000000003</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0.53750025999999995</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>0.56250029999999995</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0.58750033000000002</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>0.61250037000000002</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>0.63750041000000002</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>0.66250038</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>0.68750047999999997</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>0.71250051000000003</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>0.73750048999999995</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>0.76250052000000001</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>0.78750061999999998</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>0.81250060000000002</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>0.83750062999999997</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>0.86250066999999997</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>0.88750076</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>0.9125008</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>0.93750082999999995</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="General">
+                  <c:v>0.96250086999999995</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="General">
+                  <c:v>0.98750042999999998</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$X$44:$X$85</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2030055999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0501112999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.5930967999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.4255316000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.2733420000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.0148871000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.6229777999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.0938184000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.4472950999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4.7167110999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4.9380273000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-5.1416906999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-5.3439591000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5.5498376000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-5.7584560999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-5.9680719E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-6.1786789000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-6.3923656999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-6.6125058E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-6.8428189E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-7.0866852999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-7.3468432E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-7.6250918000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-7.9220153000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-8.2366659999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-8.5658691999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-8.9033007999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-9.2387535000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-9.5588594999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-9.8523139999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>-0.10124683</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>-0.10426240000000001</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>-0.10876753</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>-0.11618797</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>-0.12593298</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>-0.13194779000000001</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>-0.12256739</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-8.8195823000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-3.4899905000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.0304318000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C1A9-4868-AF1E-95434ADC6884}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>81x81</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$V$89:$V$170</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="82"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2499950000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8749986E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1249969999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3749955E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6249946000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.8749933999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.1249923000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.3749911000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.10624989999999999</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.11874990000000001</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>0.1312499</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>0.14374994999999999</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>0.15625</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>0.16875005000000001</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>0.1812501</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>0.19375013999999999</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>0.20625019</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>0.21875025000000001</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>0.23125029999999999</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>0.24375032999999999</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.25625038</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0.26875046000000002</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>0.28125051000000001</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0.29375048999999998</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>0.30625054000000002</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>0.31875061999999998</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>0.33125067000000002</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>0.34375072000000001</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>0.35625076</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>0.36875080999999998</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>0.38125086000000002</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>0.39375091000000001</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>0.40625095</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>0.41875099999999998</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>0.43125105000000002</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>0.44375110000000001</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>0.45625114</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>0.46875118999999998</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="General">
+                  <c:v>0.48125124000000002</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="General">
+                  <c:v>0.49375129000000001</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="General">
+                  <c:v>0.50625134000000005</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="General">
+                  <c:v>0.51875137999999998</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="General">
+                  <c:v>0.53125142999999997</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="General">
+                  <c:v>0.54375147999999995</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="General">
+                  <c:v>0.55625153000000005</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="General">
+                  <c:v>0.56875156999999998</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="General">
+                  <c:v>0.58125161999999997</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="General">
+                  <c:v>0.59375166999999995</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="General">
+                  <c:v>0.60625172000000005</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="General">
+                  <c:v>0.61875175999999998</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="General">
+                  <c:v>0.63125180999999997</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="General">
+                  <c:v>0.64375185999999995</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="General">
+                  <c:v>0.65625191000000005</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="General">
+                  <c:v>0.66875196000000003</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="General">
+                  <c:v>0.68125199999999997</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="General">
+                  <c:v>0.69375204999999995</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="General">
+                  <c:v>0.70625210000000005</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="General">
+                  <c:v>0.71875215000000003</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="General">
+                  <c:v>0.73125218999999997</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="General">
+                  <c:v>0.74375223999999995</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="General">
+                  <c:v>0.75625229000000005</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="General">
+                  <c:v>0.76875234000000003</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>0.78125237999999997</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
+                  <c:v>0.79375242999999995</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="General">
+                  <c:v>0.80625248000000005</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="General">
+                  <c:v>0.81875253000000003</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="General">
+                  <c:v>0.83125256999999997</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="General">
+                  <c:v>0.84375261999999995</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="General">
+                  <c:v>0.85625267000000005</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="General">
+                  <c:v>0.86875272000000003</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="General">
+                  <c:v>0.88125277000000002</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="General">
+                  <c:v>0.89375280999999995</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="General">
+                  <c:v>0.90625286000000005</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="General">
+                  <c:v>0.91875291000000003</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="General">
+                  <c:v>0.93125296000000002</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="General">
+                  <c:v>0.94375299999999995</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="General">
+                  <c:v>0.95625305000000005</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="General">
+                  <c:v>0.96875310000000003</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="General">
+                  <c:v>0.98125315000000002</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="General">
+                  <c:v>0.99375159000000002</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$X$89:$X$170</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="82"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2358657E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2122126E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4061773000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3832551000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.4572874E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.8923437999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-9.6901068000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.3517354000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.7185826000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.0603342E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.3728492E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.6546040999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.9057291999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.1276858999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.3230808000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.4953970000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.6486361000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.7869196000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.9141156000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-4.0335450000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-4.1478343000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-4.2588732999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-4.3678764000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-4.4755135000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-4.5820758000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-4.6876259000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-4.7921326E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-4.8955723999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-4.9979936000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-5.0995446999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-5.2004783999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-5.3011457999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-5.4019701000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-5.5034220000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-5.6060005000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-5.7102031999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-5.8165196000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-5.9254121E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-6.0373105000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-6.1526011999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-6.2716268000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-6.3946873000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-6.5220325999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-6.6538609999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-6.7903175999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-6.9314874999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-7.0773906999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-7.2279706999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-7.3830791000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-7.5424552000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-7.7057055999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-7.8722753000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-8.0414042000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-8.2121149000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-8.383169E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-8.5530691000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-8.7200813000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-8.8823363000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-9.0380168999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-9.1857247000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-9.3250759000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-9.4575882E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-9.5878959E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-9.7251489999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-9.8842426999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="General">
+                  <c:v>-0.10085967999999999</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="General">
+                  <c:v>-0.10354656</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="General">
+                  <c:v>-0.10711268</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="General">
+                  <c:v>-0.11160297</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="General">
+                  <c:v>-0.11670580999999999</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="General">
+                  <c:v>-0.12154589</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="General">
+                  <c:v>-0.1245656</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="General">
+                  <c:v>-0.12364579000000001</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="General">
+                  <c:v>-0.11659991</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="General">
+                  <c:v>-0.10205016</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-8.0444843000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-5.4684479000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-2.9594875999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-1.0113089E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-4.2119483E-4</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C1A9-4868-AF1E-95434ADC6884}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>21x21_1,1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$V$174:$V$195</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8094361E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5549711000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5626950000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.13850953999999999</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.18439394000000001</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.23349030000000001</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.28602335000000001</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.34223375</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.40237886</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.46673417</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>0.53326583000000005</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>0.59762119999999996</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>0.65776621999999996</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>0.71397661999999995</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>0.76650971000000001</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>0.81560606000000002</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>0.86149049</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>0.90437305000000001</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>0.94445025999999999</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>0.98190564000000002</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$X$174:$X$195</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0419434999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-7.7559669000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.5988023999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.4515312000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-6.0869657000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-7.2512724000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-7.8619741000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-8.0880835999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-8.3096839000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-8.7825059999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-9.4465695000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>-0.10161323</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>-0.10868583</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>-0.11575531999999999</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>-0.12614428</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>-0.14350736</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>-0.15788689</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>-0.14046101</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-7.5738676000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-4.8202992999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C1A9-4868-AF1E-95434ADC6884}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>41x41_1,07</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$V$199:$V$240</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.41918E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9706905E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3924787999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9137920000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.5415949000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.2833438999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.10147019</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.12141150000000001</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.14274865</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.16557944999999999</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>0.19000839999999999</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>0.21614734999999999</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>0.24411604000000001</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>0.27404255</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>0.30606389000000001</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>0.34032676000000001</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>0.37698799</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>0.41621553999999999</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>0.45818903999999999</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>0.50310063000000005</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.54720944000000005</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0.58762990999999998</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>0.62540614999999999</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0.66071086999999995</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>0.69370598000000006</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>0.72454249999999998</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>0.75336170000000002</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>0.78029554999999995</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>0.80546742999999998</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>0.82899248999999997</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>0.85097849000000003</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>0.87152624000000001</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>0.89072973</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>0.90867692</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>0.92544996999999996</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>0.94112574999999998</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>0.95577592</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>0.96946770000000004</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="General">
+                  <c:v>0.98226380000000002</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="General">
+                  <c:v>0.99422275999999998</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$X$199:$X$240</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6192651E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.811013E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5945446E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5008058000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.5467911999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.8398475000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.0665609E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.5480679000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.0011411999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.4081405E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.7569977999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.0460039000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.2881539000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.5089582000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.7351231999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.9808191E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-4.2456526000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-4.5288178999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-4.8421937999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-5.1970132000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-5.6207190999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-6.0932986000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-6.5843098000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-7.0824914000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-7.5621188000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-7.9938947999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-8.3565764000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-8.6593822000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-8.9684925999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-9.4073929000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>-0.10083836</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>-0.10939387</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>-0.11636038</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>-0.11643539</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>-0.10539236</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-8.3260529E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-5.5146399999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-2.8560122E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-9.4182286E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-5.6275870999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C1A9-4868-AF1E-95434ADC6884}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="402913295"/>
+        <c:axId val="411507375"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="402913295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>x</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="411507375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="411507375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Vx</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="402913295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3924,6 +8055,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4969,6 +9180,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5040,6 +10283,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>49305</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A936DBF-E83B-4629-B6EF-C6B3AABF747E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>4482</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>309282</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>71719</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{574EBFA8-2954-4E12-B075-6DE04160DDFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5313,11 +10628,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC240"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N52" sqref="N52:N57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="24" max="24" width="15.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -7900,6 +13219,17 @@
       <c r="I52" s="1">
         <v>3.5962839000000003E-2</v>
       </c>
+      <c r="K52" s="1">
+        <v>-0.38889000000000001</v>
+      </c>
+      <c r="M52">
+        <f>MIN(D2:D13)</f>
+        <v>-0.24098190999999999</v>
+      </c>
+      <c r="N52" s="2">
+        <f>((K52-M52)/K52)*100</f>
+        <v>38.033400190285178</v>
+      </c>
       <c r="U52">
         <v>9</v>
       </c>
@@ -7956,6 +13286,17 @@
       <c r="I53" s="1">
         <v>1.7658687999999999E-2</v>
       </c>
+      <c r="K53" s="1">
+        <v>-0.38889000000000001</v>
+      </c>
+      <c r="M53">
+        <f>MIN(D17:D38)</f>
+        <v>-0.32118908000000002</v>
+      </c>
+      <c r="N53" s="2">
+        <f t="shared" ref="N53:N57" si="0">((K53-M53)/K53)*100</f>
+        <v>17.408758260690682</v>
+      </c>
       <c r="U53">
         <v>10</v>
       </c>
@@ -8012,6 +13353,17 @@
       <c r="I54" s="1">
         <v>5.0876131999999996E-4</v>
       </c>
+      <c r="K54" s="1">
+        <v>-0.38889000000000001</v>
+      </c>
+      <c r="M54">
+        <f>MIN(D43:D84)</f>
+        <v>-0.36821017</v>
+      </c>
+      <c r="N54" s="2">
+        <f t="shared" si="0"/>
+        <v>5.3176553781274931</v>
+      </c>
       <c r="U54">
         <v>11</v>
       </c>
@@ -8068,6 +13420,17 @@
       <c r="I55" s="1">
         <v>-1.437156E-2</v>
       </c>
+      <c r="K55" s="1">
+        <v>-0.38889000000000001</v>
+      </c>
+      <c r="M55">
+        <f>MIN(D88:D169)</f>
+        <v>-0.38889477</v>
+      </c>
+      <c r="N55" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.2265679240883757E-3</v>
+      </c>
       <c r="U55">
         <v>12</v>
       </c>
@@ -8124,6 +13487,17 @@
       <c r="I56" s="1">
         <v>-2.7066817999999999E-2</v>
       </c>
+      <c r="K56" s="1">
+        <v>-0.38889000000000001</v>
+      </c>
+      <c r="M56">
+        <f>MIN(D173:D194)</f>
+        <v>-0.32598352000000003</v>
+      </c>
+      <c r="N56" s="2">
+        <f t="shared" si="0"/>
+        <v>16.175905783126328</v>
+      </c>
       <c r="U56">
         <v>13</v>
       </c>
@@ -8180,6 +13554,17 @@
       <c r="I57" s="1">
         <v>-3.8035825000000002E-2</v>
       </c>
+      <c r="K57" s="1">
+        <v>-0.38889000000000001</v>
+      </c>
+      <c r="M57">
+        <f>MIN(D198:D239)</f>
+        <v>-0.38442522000000001</v>
+      </c>
+      <c r="N57" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1480830054771276</v>
+      </c>
       <c r="U57">
         <v>14</v>
       </c>
@@ -18101,6 +23486,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>